--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -466,12 +466,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.100625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.390625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.970625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.980625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.810625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -468,7 +468,7 @@
     <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.800625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.100625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.390625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="6.980625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="11.810625" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="6.610625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.890625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="2.700625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="5.050625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="2.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="7.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.430625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.890625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="5.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.330625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="7.130625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="8.430625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.890625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="5.710625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.330625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.380625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.460625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.100625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.600625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.380625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.460625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.100625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.600625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.400625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.170625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.510625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.790625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.650625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.790625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.400625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.170625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.510625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.790625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.650625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.790625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.886183" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.541977" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.323881" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.319107" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.860516" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.521159" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,7 +465,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="7.620625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="7.620625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="7.730625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.970625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.020625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.080625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="4.070625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -482,23 +482,23 @@
       <x:c r="C1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -506,27 +506,27 @@
       <x:c r="A3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="0">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="0">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -534,17 +534,17 @@
       <x:c r="A6" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
+      <x:c r="B6" s="1"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="1"/>
       <x:c r="F6" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G6" s="1" t="s"/>
-      <x:c r="H6" s="1" t="s"/>
+      <x:c r="G6" s="1"/>
+      <x:c r="H6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
@@ -562,12 +562,12 @@
       <x:c r="G7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
@@ -585,12 +585,12 @@
       <x:c r="G8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="0">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
@@ -608,12 +608,12 @@
       <x:c r="G9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
@@ -627,7 +627,7 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Strings</x:t>
   </x:si>
@@ -465,14 +465,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="7.730625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.020625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.080625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="4.070625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="6.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="1.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="2.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/Collections.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Collections" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Collections" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Titles">Collections!$A$1:$A$1,Collections!$C$1:$H$1,Collections!$A$6:$D$6,Collections!$F$6:$H$6</x:definedName>
